--- a/AllReceipts/TransReceipt.xlsx
+++ b/AllReceipts/TransReceipt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XtiaN\source\repos\InventoryMate\AllReceipts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA29EE4-9CE8-45F0-97A8-494FD40123A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D42223-C556-41AA-8F73-70DE7B1EA1CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{138C9C33-6AC7-4A12-822F-06C08AD34E03}"/>
   </bookViews>
@@ -25,116 +25,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">CZ L202, SM Cyberzone SM City Daet, Vinzons Ave </t>
+  </si>
+  <si>
+    <t>Lag-On Daet (Capital), Camarines Norte 4600</t>
+  </si>
+  <si>
+    <t>MA LUISA FE V. VIT - Prop.</t>
+  </si>
+  <si>
+    <t>VAT Reg TIN: 248-620-538-00003</t>
+  </si>
+  <si>
+    <t>OFFICIAL RECEIPT</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>with TIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engage in the business style of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the sum of </t>
+  </si>
+  <si>
+    <t>pesos (P</t>
+  </si>
+  <si>
+    <t>By:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEIVED from:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and address at  </t>
+  </si>
+  <si>
+    <t>ProdName</t>
+  </si>
+  <si>
+    <t>in partial/fll payment for:</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Warranty</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Authorized Signature</t>
+  </si>
+  <si>
+    <t>Store No.</t>
+  </si>
+  <si>
+    <t>Christian John Ibanez</t>
+  </si>
+  <si>
+    <t>Gabon, Talisay, Camarines Norte</t>
+  </si>
   <si>
     <t>RBRS GADGET CENTER</t>
   </si>
   <si>
-    <t xml:space="preserve">CZ L202, SM Cyberzone SM City Daet, Vinzons Ave </t>
-  </si>
-  <si>
-    <t>Lag-On Daet (Capital), Camarines Norte 4600</t>
-  </si>
-  <si>
-    <t>MA LUISA FE V. VIT - Prop.</t>
-  </si>
-  <si>
-    <t>VAT Reg TIN: 248-620-538-00003</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>OFFICIAL RECEIPT</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>with TIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engage in the business style of </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the sum of </t>
-  </si>
-  <si>
-    <t>pesos (P</t>
-  </si>
-  <si>
-    <t>TOTAL_COST</t>
-  </si>
-  <si>
-    <t>WARRANTY DURATION</t>
-  </si>
-  <si>
-    <t>WAR_DURATION</t>
-  </si>
-  <si>
-    <t>By:</t>
-  </si>
-  <si>
-    <t>EMP_NAME</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Issued: </t>
-  </si>
-  <si>
-    <t>current_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEIVED from:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">and address at  </t>
-  </si>
-  <si>
-    <t>CurrentDate</t>
-  </si>
-  <si>
-    <t>ProdName</t>
-  </si>
-  <si>
-    <t>in partial/fll payment for:</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Christian John Ibanez</t>
+    <t>SERVICE FEE:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,15 +115,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="Lucida Fax"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -159,10 +138,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -179,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,43 +174,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -232,49 +185,65 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,185 +560,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6737359-282E-44C4-81C7-180308A728E9}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="18">
+        <v>45410.101678240739</v>
+      </c>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="C8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="C9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="8" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="F13" s="8">
+        <v>9000</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -777,51 +750,47 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -829,18 +798,16 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -849,28 +816,32 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="13">
+        <v>639079519214</v>
+      </c>
+      <c r="H21" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A6:H6"/>
+  <mergeCells count="14">
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -878,15 +849,10 @@
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
